--- a/GridSearchResults/Hyperparameters_NTSK-RLS_NASDAQ.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_NASDAQ.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>903.6183871340697</v>
+        <v>903.6050430168957</v>
       </c>
       <c r="G2" t="n">
-        <v>1.969330937011842</v>
+        <v>1.969301855064028</v>
       </c>
       <c r="H2" t="n">
-        <v>715.1751178188086</v>
+        <v>715.1660566772258</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>784.4209861429791</v>
+        <v>784.4210104514062</v>
       </c>
       <c r="G3" t="n">
-        <v>1.709554096782126</v>
+        <v>1.709554149759509</v>
       </c>
       <c r="H3" t="n">
-        <v>626.031249670846</v>
+        <v>626.0312675942313</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>484.6198246675187</v>
+        <v>484.6198277468936</v>
       </c>
       <c r="G4" t="n">
-        <v>1.056172414146989</v>
+        <v>1.056172420858128</v>
       </c>
       <c r="H4" t="n">
-        <v>396.8366173822809</v>
+        <v>396.8366198010475</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>298.760270392191</v>
+        <v>298.7602704863381</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6511131818592247</v>
+        <v>0.6511131820644072</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0604578840838</v>
+        <v>241.0604579601335</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>181.5948014324409</v>
+        <v>181.5948014225014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3957647006228617</v>
+        <v>0.3957647006011996</v>
       </c>
       <c r="H6" t="n">
-        <v>145.5795371001244</v>
+        <v>145.5795370904831</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>176.4698201424713</v>
+        <v>176.4698201245835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3845954013371815</v>
+        <v>0.3845954012981971</v>
       </c>
       <c r="H7" t="n">
-        <v>140.1433645433864</v>
+        <v>140.143364525665</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>173.1408329606847</v>
+        <v>173.1408329574672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3773402618453868</v>
+        <v>0.3773402618383747</v>
       </c>
       <c r="H8" t="n">
-        <v>136.1794149962283</v>
+        <v>136.1794149930056</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.93</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>171.0019250787764</v>
+        <v>171.0019250903222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3726787614562457</v>
+        <v>0.3726787614814085</v>
       </c>
       <c r="H9" t="n">
-        <v>132.9647137056496</v>
+        <v>132.9647137220902</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>169.3699062361631</v>
+        <v>169.3699062348481</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3691219666385372</v>
+        <v>0.3691219666356714</v>
       </c>
       <c r="H10" t="n">
-        <v>130.7663926356215</v>
+        <v>130.7663926344838</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>167.5922069010501</v>
+        <v>167.5922069020842</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3652476781698764</v>
+        <v>0.3652476781721301</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2724824280593</v>
+        <v>129.272482429537</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>165.2361489179029</v>
+        <v>165.2361489177383</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3601129244489816</v>
+        <v>0.3601129244486231</v>
       </c>
       <c r="H12" t="n">
-        <v>127.3216455575204</v>
+        <v>127.3216455569816</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>0.97</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>162.4936663865196</v>
+        <v>162.4936663865674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3541360034719783</v>
+        <v>0.3541360034720825</v>
       </c>
       <c r="H13" t="n">
-        <v>125.1490272497645</v>
+        <v>125.149027249837</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -862,17 +886,19 @@
       <c r="D14" t="n">
         <v>0.98</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>160.5467869559444</v>
+        <v>160.5467869559622</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3498930067071337</v>
+        <v>0.3498930067071727</v>
       </c>
       <c r="H14" t="n">
-        <v>124.0260370738766</v>
+        <v>124.0260370738752</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -893,17 +919,19 @@
       <c r="D15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>160.3422495722563</v>
+        <v>160.3422495722593</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3494472413229765</v>
+        <v>0.349447241322983</v>
       </c>
       <c r="H15" t="n">
-        <v>125.1036273762065</v>
+        <v>125.1036273762254</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -924,17 +952,19 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>163.0355370277459</v>
+        <v>163.0355370277461</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3553169473669004</v>
+        <v>0.3553169473669009</v>
       </c>
       <c r="H16" t="n">
-        <v>127.9919714595155</v>
+        <v>127.9919714595157</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
